--- a/data/pca/factorExposure/factorExposure_2015-06-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02066048256874826</v>
+        <v>0.009076127046136251</v>
       </c>
       <c r="C2">
-        <v>-0.02422082836528993</v>
+        <v>-0.0524708809478179</v>
       </c>
       <c r="D2">
-        <v>-0.1206130157900135</v>
+        <v>-0.1381492698195092</v>
       </c>
       <c r="E2">
-        <v>0.003989278607044468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.008300532187529006</v>
+      </c>
+      <c r="F2">
+        <v>-0.0157588499172953</v>
+      </c>
+      <c r="G2">
+        <v>-0.1266016948483334</v>
+      </c>
+      <c r="H2">
+        <v>-0.06548445472917495</v>
+      </c>
+      <c r="I2">
+        <v>0.01183902910770639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.001721883837594131</v>
+        <v>-0.003366010359594706</v>
       </c>
       <c r="C3">
-        <v>-0.01051279057944342</v>
+        <v>-0.006260020644093364</v>
       </c>
       <c r="D3">
-        <v>-0.01397038541092564</v>
+        <v>-0.01111254386745829</v>
       </c>
       <c r="E3">
-        <v>-0.006949073760533245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.01378148117715848</v>
+      </c>
+      <c r="F3">
+        <v>0.006509642878660351</v>
+      </c>
+      <c r="G3">
+        <v>0.004798082404543394</v>
+      </c>
+      <c r="H3">
+        <v>-0.003450194090439381</v>
+      </c>
+      <c r="I3">
+        <v>0.009181696031174434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04607518996104561</v>
+        <v>0.01899978778477427</v>
       </c>
       <c r="C4">
-        <v>-0.06813874565186209</v>
+        <v>-0.09978598472008417</v>
       </c>
       <c r="D4">
-        <v>-0.1312374917347025</v>
+        <v>-0.1356644832460693</v>
       </c>
       <c r="E4">
-        <v>-0.07336107145134653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01506611847331697</v>
+      </c>
+      <c r="F4">
+        <v>-0.08708460766565844</v>
+      </c>
+      <c r="G4">
+        <v>-0.01065741373045571</v>
+      </c>
+      <c r="H4">
+        <v>-0.0416118394690159</v>
+      </c>
+      <c r="I4">
+        <v>-0.05023436506635656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02468914033550142</v>
+        <v>0.02697465119661787</v>
       </c>
       <c r="C6">
-        <v>-0.0131898220281274</v>
+        <v>-0.0307823611715532</v>
       </c>
       <c r="D6">
-        <v>-0.141987932455372</v>
+        <v>-0.1280717243916245</v>
       </c>
       <c r="E6">
-        <v>-0.02826732460290451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.04663328217500386</v>
+      </c>
+      <c r="F6">
+        <v>-0.05153259369975822</v>
+      </c>
+      <c r="G6">
+        <v>-0.004135374315865366</v>
+      </c>
+      <c r="H6">
+        <v>-0.06490098959386811</v>
+      </c>
+      <c r="I6">
+        <v>0.0135439694159708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007864375650414685</v>
+        <v>0.009203401040396807</v>
       </c>
       <c r="C7">
-        <v>-0.02301516434772356</v>
+        <v>-0.03331501033687957</v>
       </c>
       <c r="D7">
-        <v>-0.113867965977574</v>
+        <v>-0.1010872183018812</v>
       </c>
       <c r="E7">
-        <v>0.005130371911130732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.050877219567759</v>
+      </c>
+      <c r="F7">
+        <v>-0.008836333939751494</v>
+      </c>
+      <c r="G7">
+        <v>0.007761294252596232</v>
+      </c>
+      <c r="H7">
+        <v>-0.07629825737588267</v>
+      </c>
+      <c r="I7">
+        <v>0.01734476412515432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0008010782566062499</v>
+        <v>-0.01147581462079891</v>
       </c>
       <c r="C8">
-        <v>-0.0269907558309635</v>
+        <v>-0.03253789550204363</v>
       </c>
       <c r="D8">
-        <v>-0.08487212398986571</v>
+        <v>-0.07991397314909103</v>
       </c>
       <c r="E8">
-        <v>-0.01973274079823151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01974832628209633</v>
+      </c>
+      <c r="F8">
+        <v>-0.04320472106638026</v>
+      </c>
+      <c r="G8">
+        <v>-0.06690663441446783</v>
+      </c>
+      <c r="H8">
+        <v>-0.00723939771118113</v>
+      </c>
+      <c r="I8">
+        <v>0.04389417929946667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03987412062774193</v>
+        <v>0.01422299313962982</v>
       </c>
       <c r="C9">
-        <v>-0.05872357714846129</v>
+        <v>-0.08395037031538977</v>
       </c>
       <c r="D9">
-        <v>-0.1331115796799394</v>
+        <v>-0.1189181815893185</v>
       </c>
       <c r="E9">
-        <v>-0.05689778598105544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005864163516813654</v>
+      </c>
+      <c r="F9">
+        <v>-0.05714185897542432</v>
+      </c>
+      <c r="G9">
+        <v>0.01166857543450349</v>
+      </c>
+      <c r="H9">
+        <v>-0.05714856538077848</v>
+      </c>
+      <c r="I9">
+        <v>-0.01665872885300987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1543127255667712</v>
+        <v>0.2320014937687447</v>
       </c>
       <c r="C10">
-        <v>0.1800990723613682</v>
+        <v>0.10227584176045</v>
       </c>
       <c r="D10">
-        <v>-0.009523225401558947</v>
+        <v>0.00522401556202516</v>
       </c>
       <c r="E10">
-        <v>-0.04495477337624959</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02654650900926165</v>
+      </c>
+      <c r="F10">
+        <v>-0.040256331166116</v>
+      </c>
+      <c r="G10">
+        <v>-0.003877336998150597</v>
+      </c>
+      <c r="H10">
+        <v>0.06401166210664365</v>
+      </c>
+      <c r="I10">
+        <v>0.1108567445852585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02276250192291568</v>
+        <v>0.009638138464057418</v>
       </c>
       <c r="C11">
-        <v>-0.03992536510477999</v>
+        <v>-0.05306329591968017</v>
       </c>
       <c r="D11">
-        <v>-0.05164277007980981</v>
+        <v>-0.04439025825734727</v>
       </c>
       <c r="E11">
-        <v>0.01715370545014929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01968459092661127</v>
+      </c>
+      <c r="F11">
+        <v>0.01129258538909422</v>
+      </c>
+      <c r="G11">
+        <v>0.003577197332053372</v>
+      </c>
+      <c r="H11">
+        <v>-0.05065031143630165</v>
+      </c>
+      <c r="I11">
+        <v>-0.04800456009701153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02493299271100102</v>
+        <v>0.01072055676270555</v>
       </c>
       <c r="C12">
-        <v>-0.0403939356415836</v>
+        <v>-0.05015808730908022</v>
       </c>
       <c r="D12">
-        <v>-0.06615414498130687</v>
+        <v>-0.05044688963312019</v>
       </c>
       <c r="E12">
-        <v>0.008482999507446225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0191789827286356</v>
+      </c>
+      <c r="F12">
+        <v>0.0170027858577517</v>
+      </c>
+      <c r="G12">
+        <v>0.0254306549492587</v>
+      </c>
+      <c r="H12">
+        <v>-0.07238935389396689</v>
+      </c>
+      <c r="I12">
+        <v>-0.02891338166693964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.007180748606909427</v>
+        <v>-0.001041926527491418</v>
       </c>
       <c r="C13">
-        <v>-0.02503822623554475</v>
+        <v>-0.04426930635229893</v>
       </c>
       <c r="D13">
-        <v>-0.1544959337054551</v>
+        <v>-0.1514110723965865</v>
       </c>
       <c r="E13">
-        <v>-0.02729271669278965</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03856061910279693</v>
+      </c>
+      <c r="F13">
+        <v>-0.03741162163015548</v>
+      </c>
+      <c r="G13">
+        <v>-0.03516487797109395</v>
+      </c>
+      <c r="H13">
+        <v>-0.08696557575772347</v>
+      </c>
+      <c r="I13">
+        <v>0.1098787065049701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.001752834301350417</v>
+        <v>-0.0007000715319731692</v>
       </c>
       <c r="C14">
-        <v>-0.01959157276658884</v>
+        <v>-0.02850232170913989</v>
       </c>
       <c r="D14">
-        <v>-0.1052852501941801</v>
+        <v>-0.1056665982217133</v>
       </c>
       <c r="E14">
-        <v>-0.004379652730567799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.03052639265999645</v>
+      </c>
+      <c r="F14">
+        <v>-0.02756719092511809</v>
+      </c>
+      <c r="G14">
+        <v>-0.01445638882140397</v>
+      </c>
+      <c r="H14">
+        <v>-0.1315059261500536</v>
+      </c>
+      <c r="I14">
+        <v>0.01406060218200835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001057541837183765</v>
+        <v>-0.001202166924611349</v>
       </c>
       <c r="C15">
-        <v>-0.01047211776652253</v>
+        <v>-0.01950797072434422</v>
       </c>
       <c r="D15">
-        <v>-0.02728929172256321</v>
+        <v>-0.05358723736543469</v>
       </c>
       <c r="E15">
-        <v>0.005251583413458838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.006224136271596729</v>
+      </c>
+      <c r="F15">
+        <v>-0.004356215758398555</v>
+      </c>
+      <c r="G15">
+        <v>-0.0231884771669148</v>
+      </c>
+      <c r="H15">
+        <v>-0.02503350048126751</v>
+      </c>
+      <c r="I15">
+        <v>-0.01875892168481497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02300787902589975</v>
+        <v>0.01038109191538953</v>
       </c>
       <c r="C16">
-        <v>-0.03803853949996977</v>
+        <v>-0.0486219693418452</v>
       </c>
       <c r="D16">
-        <v>-0.0586801923651091</v>
+        <v>-0.04606783000690765</v>
       </c>
       <c r="E16">
-        <v>0.01108751560150023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02117259226826122</v>
+      </c>
+      <c r="F16">
+        <v>0.007904854462630079</v>
+      </c>
+      <c r="G16">
+        <v>0.01570662376530832</v>
+      </c>
+      <c r="H16">
+        <v>-0.05499980016190234</v>
+      </c>
+      <c r="I16">
+        <v>-0.04341946743182124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.007085113481930908</v>
+        <v>0.0006706120935403064</v>
       </c>
       <c r="C19">
-        <v>-0.0207658672313768</v>
+        <v>-0.01984577300781512</v>
       </c>
       <c r="D19">
-        <v>-0.114062404087437</v>
+        <v>-0.07106162912260608</v>
       </c>
       <c r="E19">
-        <v>-0.03737786553319133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.02016377089201481</v>
+      </c>
+      <c r="F19">
+        <v>-0.006804648840535183</v>
+      </c>
+      <c r="G19">
+        <v>-0.01093715142006685</v>
+      </c>
+      <c r="H19">
+        <v>-0.06647100768306</v>
+      </c>
+      <c r="I19">
+        <v>0.04671425080100011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.005899025685180735</v>
+        <v>0.003907118826814065</v>
       </c>
       <c r="C20">
-        <v>-0.02507765376500488</v>
+        <v>-0.03798010189789187</v>
       </c>
       <c r="D20">
-        <v>-0.09200115619134926</v>
+        <v>-0.0959457794923113</v>
       </c>
       <c r="E20">
-        <v>-0.02949032375733485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.00811188389278575</v>
+      </c>
+      <c r="F20">
+        <v>-0.02686705270809333</v>
+      </c>
+      <c r="G20">
+        <v>0.002162497720672413</v>
+      </c>
+      <c r="H20">
+        <v>-0.05719260678525948</v>
+      </c>
+      <c r="I20">
+        <v>-0.01211840634519367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.009566328293944819</v>
+        <v>0.003188214933940197</v>
       </c>
       <c r="C21">
-        <v>-0.03015407731832586</v>
+        <v>-0.0423909885407823</v>
       </c>
       <c r="D21">
-        <v>-0.1701755266533909</v>
+        <v>-0.133564606474069</v>
       </c>
       <c r="E21">
-        <v>-0.06328284248644279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.00256364066820626</v>
+      </c>
+      <c r="F21">
+        <v>-0.076017426618121</v>
+      </c>
+      <c r="G21">
+        <v>-0.01904958520305424</v>
+      </c>
+      <c r="H21">
+        <v>-0.1925450172674231</v>
+      </c>
+      <c r="I21">
+        <v>0.1338740938922204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003088256686477497</v>
+        <v>-0.01048852059809984</v>
       </c>
       <c r="C22">
-        <v>-0.06073839746964998</v>
+        <v>-0.08205427311869656</v>
       </c>
       <c r="D22">
-        <v>-0.2231567102543365</v>
+        <v>-0.2624098621495555</v>
       </c>
       <c r="E22">
-        <v>0.04116031264892213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.05227244463367108</v>
+      </c>
+      <c r="F22">
+        <v>-0.02884156358317574</v>
+      </c>
+      <c r="G22">
+        <v>-0.3487297543568815</v>
+      </c>
+      <c r="H22">
+        <v>0.3961129372149048</v>
+      </c>
+      <c r="I22">
+        <v>-0.1267893470137498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003357737120662263</v>
+        <v>-0.01003852674774554</v>
       </c>
       <c r="C23">
-        <v>-0.06121270365181477</v>
+        <v>-0.08303440529099226</v>
       </c>
       <c r="D23">
-        <v>-0.2227188955414751</v>
+        <v>-0.2630277733727931</v>
       </c>
       <c r="E23">
-        <v>0.04098924793905475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04913369339656463</v>
+      </c>
+      <c r="F23">
+        <v>-0.0282227548892087</v>
+      </c>
+      <c r="G23">
+        <v>-0.3476661737819328</v>
+      </c>
+      <c r="H23">
+        <v>0.3964700570352162</v>
+      </c>
+      <c r="I23">
+        <v>-0.1283315566651124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02963325160037172</v>
+        <v>0.009579809298282151</v>
       </c>
       <c r="C24">
-        <v>-0.05626995146789937</v>
+        <v>-0.06587300367313563</v>
       </c>
       <c r="D24">
-        <v>-0.07114680787217159</v>
+        <v>-0.05362119060647663</v>
       </c>
       <c r="E24">
-        <v>0.007777157197250814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02542168473878195</v>
+      </c>
+      <c r="F24">
+        <v>0.005774543464354937</v>
+      </c>
+      <c r="G24">
+        <v>0.008240491826545196</v>
+      </c>
+      <c r="H24">
+        <v>-0.07941046233988008</v>
+      </c>
+      <c r="I24">
+        <v>-0.04202928832508633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03142162637869598</v>
+        <v>0.01348338553060361</v>
       </c>
       <c r="C25">
-        <v>-0.04750206379069085</v>
+        <v>-0.0614074596865367</v>
       </c>
       <c r="D25">
-        <v>-0.06530699640041483</v>
+        <v>-0.05259788456298934</v>
       </c>
       <c r="E25">
-        <v>0.002547383107591927</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01224612687244054</v>
+      </c>
+      <c r="F25">
+        <v>0.007520525905109995</v>
+      </c>
+      <c r="G25">
+        <v>0.01374775077226576</v>
+      </c>
+      <c r="H25">
+        <v>-0.04782752608563324</v>
+      </c>
+      <c r="I25">
+        <v>-0.02977364587049982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009780897269572732</v>
+        <v>0.00689115068051367</v>
       </c>
       <c r="C26">
-        <v>-0.01423480176622369</v>
+        <v>-0.02486089125277501</v>
       </c>
       <c r="D26">
-        <v>-0.08137355747134153</v>
+        <v>-0.06880367708792064</v>
       </c>
       <c r="E26">
-        <v>-0.01339215447201821</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02712666985999754</v>
+      </c>
+      <c r="F26">
+        <v>-0.02194128606873821</v>
+      </c>
+      <c r="G26">
+        <v>0.01032233148022956</v>
+      </c>
+      <c r="H26">
+        <v>-0.08492570838487327</v>
+      </c>
+      <c r="I26">
+        <v>0.0420861028106212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2375515214448876</v>
+        <v>0.3181362480392105</v>
       </c>
       <c r="C28">
-        <v>0.2229317255484533</v>
+        <v>0.1045633773288788</v>
       </c>
       <c r="D28">
-        <v>-0.01992708212532439</v>
+        <v>0.008287361973521871</v>
       </c>
       <c r="E28">
-        <v>-0.06627364997872799</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05729262229155573</v>
+      </c>
+      <c r="F28">
+        <v>-0.0359240595631735</v>
+      </c>
+      <c r="G28">
+        <v>-0.02220876904681901</v>
+      </c>
+      <c r="H28">
+        <v>0.01708628728344976</v>
+      </c>
+      <c r="I28">
+        <v>0.1449514130367891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001668455923676028</v>
+        <v>-0.001988193747153946</v>
       </c>
       <c r="C29">
-        <v>-0.02251426780409306</v>
+        <v>-0.031241227287637</v>
       </c>
       <c r="D29">
-        <v>-0.101124679637743</v>
+        <v>-0.1012987126599097</v>
       </c>
       <c r="E29">
-        <v>-0.0090719089630789</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03998487274297343</v>
+      </c>
+      <c r="F29">
+        <v>-0.03559523817332218</v>
+      </c>
+      <c r="G29">
+        <v>-0.003877098034779517</v>
+      </c>
+      <c r="H29">
+        <v>-0.1394020314680015</v>
+      </c>
+      <c r="I29">
+        <v>0.01354372878352377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02802306657192276</v>
+        <v>0.0153217117249431</v>
       </c>
       <c r="C30">
-        <v>-0.05823208402392174</v>
+        <v>-0.08479639560546022</v>
       </c>
       <c r="D30">
-        <v>-0.167584002848675</v>
+        <v>-0.1612934444586553</v>
       </c>
       <c r="E30">
-        <v>-0.01476018595961242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03986631279753055</v>
+      </c>
+      <c r="F30">
+        <v>-0.03637345548312541</v>
+      </c>
+      <c r="G30">
+        <v>-0.03388774226316386</v>
+      </c>
+      <c r="H30">
+        <v>-0.05953050759548435</v>
+      </c>
+      <c r="I30">
+        <v>-0.06957076879587812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04800191003023744</v>
+        <v>0.01081612717295642</v>
       </c>
       <c r="C31">
-        <v>-0.0832192083447658</v>
+        <v>-0.09253582078630682</v>
       </c>
       <c r="D31">
-        <v>-0.07247388785134777</v>
+        <v>-0.04192805710282959</v>
       </c>
       <c r="E31">
-        <v>-0.008775822983682798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008669675656132771</v>
+      </c>
+      <c r="F31">
+        <v>-0.01104261066663926</v>
+      </c>
+      <c r="G31">
+        <v>-0.002873238969045966</v>
+      </c>
+      <c r="H31">
+        <v>-0.04598006818070666</v>
+      </c>
+      <c r="I31">
+        <v>0.06949239794325278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02259562963657963</v>
+        <v>0.01121510795473447</v>
       </c>
       <c r="C32">
-        <v>-0.03128982726215664</v>
+        <v>-0.04419796524412938</v>
       </c>
       <c r="D32">
-        <v>-0.1102288195678314</v>
+        <v>-0.1116738164511793</v>
       </c>
       <c r="E32">
-        <v>-0.06258266649100321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.00459502866616743</v>
+      </c>
+      <c r="F32">
+        <v>-0.04662053310815763</v>
+      </c>
+      <c r="G32">
+        <v>-0.02615236559853263</v>
+      </c>
+      <c r="H32">
+        <v>-0.04320359673691609</v>
+      </c>
+      <c r="I32">
+        <v>0.08363041249693005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01615574396025854</v>
+        <v>0.006653144042210226</v>
       </c>
       <c r="C33">
-        <v>-0.04189616358592495</v>
+        <v>-0.05695926151535338</v>
       </c>
       <c r="D33">
-        <v>-0.1491149695740944</v>
+        <v>-0.126906998132173</v>
       </c>
       <c r="E33">
-        <v>-0.03184057022863801</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0162063866355747</v>
+      </c>
+      <c r="F33">
+        <v>-0.02614791688800015</v>
+      </c>
+      <c r="G33">
+        <v>-0.004388852106277773</v>
+      </c>
+      <c r="H33">
+        <v>-0.07113657467761264</v>
+      </c>
+      <c r="I33">
+        <v>0.01564128362687206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02689682157514213</v>
+        <v>0.00690077023216883</v>
       </c>
       <c r="C34">
-        <v>-0.05831350437994348</v>
+        <v>-0.06291395847932758</v>
       </c>
       <c r="D34">
-        <v>-0.05195946834222316</v>
+        <v>-0.03217446112127336</v>
       </c>
       <c r="E34">
-        <v>0.04883825756027965</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02975932737996687</v>
+      </c>
+      <c r="F34">
+        <v>0.03571720238960952</v>
+      </c>
+      <c r="G34">
+        <v>0.008310516056651548</v>
+      </c>
+      <c r="H34">
+        <v>-0.06314039652496237</v>
+      </c>
+      <c r="I34">
+        <v>-0.01780512639610042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001416894863514377</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.006100101922875659</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.02780850618143213</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003962055356656694</v>
+      </c>
+      <c r="F35">
+        <v>-0.01094516241280125</v>
+      </c>
+      <c r="G35">
+        <v>-0.004879335894390293</v>
+      </c>
+      <c r="H35">
+        <v>-0.03376543822107766</v>
+      </c>
+      <c r="I35">
+        <v>-0.01586061811605274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009975246036143323</v>
+        <v>0.006209685967610542</v>
       </c>
       <c r="C36">
-        <v>-0.006484972521352604</v>
+        <v>-0.02023012424902409</v>
       </c>
       <c r="D36">
-        <v>-0.09387979479109403</v>
+        <v>-0.07721040947385013</v>
       </c>
       <c r="E36">
-        <v>-0.0386202504237131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.006335221098832498</v>
+      </c>
+      <c r="F36">
+        <v>-0.03653340034416969</v>
+      </c>
+      <c r="G36">
+        <v>-0.0009396466133465378</v>
+      </c>
+      <c r="H36">
+        <v>-0.06524446875841208</v>
+      </c>
+      <c r="I36">
+        <v>0.03116440613904476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007700244219214041</v>
+        <v>0.01289731502678104</v>
       </c>
       <c r="C38">
-        <v>-0.006473973647908028</v>
+        <v>-0.0159874295352648</v>
       </c>
       <c r="D38">
-        <v>-0.08994720894969067</v>
+        <v>-0.08476482408005058</v>
       </c>
       <c r="E38">
-        <v>-0.00650821646630281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.009607541649164426</v>
+      </c>
+      <c r="F38">
+        <v>0.009005953250212397</v>
+      </c>
+      <c r="G38">
+        <v>-0.01584130230183447</v>
+      </c>
+      <c r="H38">
+        <v>-0.05390828840995263</v>
+      </c>
+      <c r="I38">
+        <v>0.02979863257765554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02284092474520287</v>
+        <v>0.005389432107797752</v>
       </c>
       <c r="C39">
-        <v>-0.05668655916738481</v>
+        <v>-0.07543257144658651</v>
       </c>
       <c r="D39">
-        <v>-0.1178345794426467</v>
+        <v>-0.1046172973992219</v>
       </c>
       <c r="E39">
-        <v>0.02311242595671064</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04866874666848645</v>
+      </c>
+      <c r="F39">
+        <v>0.001912141308612211</v>
+      </c>
+      <c r="G39">
+        <v>0.007484212494224492</v>
+      </c>
+      <c r="H39">
+        <v>-0.1091608916549556</v>
+      </c>
+      <c r="I39">
+        <v>-0.07201696456399903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01236978265216589</v>
+        <v>0.01086265116076348</v>
       </c>
       <c r="C40">
-        <v>-0.01618999684642961</v>
+        <v>-0.02527280375152634</v>
       </c>
       <c r="D40">
-        <v>-0.1184540902077969</v>
+        <v>-0.0967653340469577</v>
       </c>
       <c r="E40">
-        <v>0.02595747361104894</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0436550713318303</v>
+      </c>
+      <c r="F40">
+        <v>0.02288400278280281</v>
+      </c>
+      <c r="G40">
+        <v>-0.06366136166736318</v>
+      </c>
+      <c r="H40">
+        <v>-0.07917897829463855</v>
+      </c>
+      <c r="I40">
+        <v>0.07164824192447337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01322507705967816</v>
+        <v>0.01321641663695833</v>
       </c>
       <c r="C41">
-        <v>-0.006647510182520127</v>
+        <v>-0.01572396639396712</v>
       </c>
       <c r="D41">
-        <v>-0.05892515513781901</v>
+        <v>-0.04239807957437278</v>
       </c>
       <c r="E41">
-        <v>-0.02923348171005665</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02051425192326357</v>
+      </c>
+      <c r="F41">
+        <v>-0.01526862799067042</v>
+      </c>
+      <c r="G41">
+        <v>-0.009201636843533272</v>
+      </c>
+      <c r="H41">
+        <v>-0.0420435573474894</v>
+      </c>
+      <c r="I41">
+        <v>0.04210022588979907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007696692855752692</v>
+        <v>0.007041048450534696</v>
       </c>
       <c r="C43">
-        <v>-0.007388432554015996</v>
+        <v>-0.01477510803496097</v>
       </c>
       <c r="D43">
-        <v>-0.06963003407436033</v>
+        <v>-0.05162599002113288</v>
       </c>
       <c r="E43">
-        <v>-0.01748994957940747</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.00365627531278388</v>
+      </c>
+      <c r="F43">
+        <v>-0.01295105942893339</v>
+      </c>
+      <c r="G43">
+        <v>-0.009778206778281265</v>
+      </c>
+      <c r="H43">
+        <v>-0.06053885667066338</v>
+      </c>
+      <c r="I43">
+        <v>0.0264758906785214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01825229906814178</v>
+        <v>0.00970070421601836</v>
       </c>
       <c r="C44">
-        <v>-0.02477508789176464</v>
+        <v>-0.04552437477498208</v>
       </c>
       <c r="D44">
-        <v>-0.1139933341106414</v>
+        <v>-0.1166420820352997</v>
       </c>
       <c r="E44">
-        <v>-0.04002220989835335</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.02070869785289908</v>
+      </c>
+      <c r="F44">
+        <v>-0.02864541189799171</v>
+      </c>
+      <c r="G44">
+        <v>-0.02287086264873099</v>
+      </c>
+      <c r="H44">
+        <v>-0.0510553435712573</v>
+      </c>
+      <c r="I44">
+        <v>-0.06156644878394719</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.00959236324818963</v>
+        <v>-0.0008579674266474912</v>
       </c>
       <c r="C46">
-        <v>-0.02823990883866151</v>
+        <v>-0.03926903996987202</v>
       </c>
       <c r="D46">
-        <v>-0.09748133018952085</v>
+        <v>-0.08504359011670155</v>
       </c>
       <c r="E46">
-        <v>-0.0162022378553629</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02602585007992752</v>
+      </c>
+      <c r="F46">
+        <v>-0.0295122160954444</v>
+      </c>
+      <c r="G46">
+        <v>-0.01432018704332735</v>
+      </c>
+      <c r="H46">
+        <v>-0.1430376207541392</v>
+      </c>
+      <c r="I46">
+        <v>0.01105855638802519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08979015835701108</v>
+        <v>0.03577356131307435</v>
       </c>
       <c r="C47">
-        <v>-0.1012647522150212</v>
+        <v>-0.1239311868172699</v>
       </c>
       <c r="D47">
-        <v>-0.06096906561986063</v>
+        <v>-0.02331980114489049</v>
       </c>
       <c r="E47">
-        <v>-0.02398683494905806</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02047397951687089</v>
+      </c>
+      <c r="F47">
+        <v>0.01475442847214416</v>
+      </c>
+      <c r="G47">
+        <v>0.05170666105088349</v>
+      </c>
+      <c r="H47">
+        <v>-0.03736583555906324</v>
+      </c>
+      <c r="I47">
+        <v>0.1352127184721744</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008400122309777899</v>
+        <v>0.005108134450512545</v>
       </c>
       <c r="C48">
-        <v>-0.01562333397949137</v>
+        <v>-0.02799826249322151</v>
       </c>
       <c r="D48">
-        <v>-0.09745338868889954</v>
+        <v>-0.08131794480498805</v>
       </c>
       <c r="E48">
-        <v>-0.05234935377184215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.00369966936018378</v>
+      </c>
+      <c r="F48">
+        <v>-0.03836723231026813</v>
+      </c>
+      <c r="G48">
+        <v>-0.00185932805717951</v>
+      </c>
+      <c r="H48">
+        <v>-0.09334685931543657</v>
+      </c>
+      <c r="I48">
+        <v>0.01337587426661827</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04442190217326551</v>
+        <v>0.01357988914161585</v>
       </c>
       <c r="C50">
-        <v>-0.05998380148431046</v>
+        <v>-0.07446132752049685</v>
       </c>
       <c r="D50">
-        <v>-0.07159473255757175</v>
+        <v>-0.04683064501415824</v>
       </c>
       <c r="E50">
-        <v>-0.005511533579790577</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.001723856978064858</v>
+      </c>
+      <c r="F50">
+        <v>-0.005022873195261844</v>
+      </c>
+      <c r="G50">
+        <v>-0.01988281548098646</v>
+      </c>
+      <c r="H50">
+        <v>-0.03362884078123021</v>
+      </c>
+      <c r="I50">
+        <v>0.1175473184536427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003675310538491531</v>
+        <v>0.001278482633304129</v>
       </c>
       <c r="C51">
-        <v>-0.004052780404941885</v>
+        <v>-0.01620717281568749</v>
       </c>
       <c r="D51">
-        <v>-0.0592686614718855</v>
+        <v>-0.06464493100783436</v>
       </c>
       <c r="E51">
-        <v>-0.001157548562888956</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03667642945648214</v>
+      </c>
+      <c r="F51">
+        <v>-0.03787215147250753</v>
+      </c>
+      <c r="G51">
+        <v>-0.0350954233558477</v>
+      </c>
+      <c r="H51">
+        <v>-0.050482681711299</v>
+      </c>
+      <c r="I51">
+        <v>0.01754441052652304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1163802386901815</v>
+        <v>0.06053034192019018</v>
       </c>
       <c r="C53">
-        <v>-0.1162331649039649</v>
+        <v>-0.1564096887680387</v>
       </c>
       <c r="D53">
-        <v>-0.01997601713389079</v>
+        <v>0.01463077362907628</v>
       </c>
       <c r="E53">
-        <v>-0.05373196499178617</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03287720797258745</v>
+      </c>
+      <c r="F53">
+        <v>-0.04370971290652086</v>
+      </c>
+      <c r="G53">
+        <v>-0.002642848130554901</v>
+      </c>
+      <c r="H53">
+        <v>-0.001355281190246972</v>
+      </c>
+      <c r="I53">
+        <v>0.07667149444556831</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0181615430620826</v>
+        <v>0.01128654578071154</v>
       </c>
       <c r="C54">
-        <v>-0.02268129151498512</v>
+        <v>-0.04077534085734152</v>
       </c>
       <c r="D54">
-        <v>-0.1054207826777071</v>
+        <v>-0.08542732889361097</v>
       </c>
       <c r="E54">
-        <v>0.00313584649153505</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01293074331701048</v>
+      </c>
+      <c r="F54">
+        <v>0.001893494520115868</v>
+      </c>
+      <c r="G54">
+        <v>-0.02482277638486789</v>
+      </c>
+      <c r="H54">
+        <v>-0.09886864014996986</v>
+      </c>
+      <c r="I54">
+        <v>0.03738165852192487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1029425013833191</v>
+        <v>0.04618926934295119</v>
       </c>
       <c r="C55">
-        <v>-0.09849569746781413</v>
+        <v>-0.1290720792635794</v>
       </c>
       <c r="D55">
-        <v>-0.009031139728078215</v>
+        <v>0.02622717325321047</v>
       </c>
       <c r="E55">
-        <v>-0.01217261168708708</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.001389089304940409</v>
+      </c>
+      <c r="F55">
+        <v>-0.0117138533236757</v>
+      </c>
+      <c r="G55">
+        <v>-0.01367931497617199</v>
+      </c>
+      <c r="H55">
+        <v>-0.009968934488828391</v>
+      </c>
+      <c r="I55">
+        <v>0.08640442672280531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1435793225289935</v>
+        <v>0.06472170674223507</v>
       </c>
       <c r="C56">
-        <v>-0.1315338637724521</v>
+        <v>-0.1878358930197587</v>
       </c>
       <c r="D56">
-        <v>-0.007104040758112749</v>
+        <v>0.02407717389460703</v>
       </c>
       <c r="E56">
-        <v>-0.0126249110208082</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03271363234976632</v>
+      </c>
+      <c r="F56">
+        <v>-0.01238528088113144</v>
+      </c>
+      <c r="G56">
+        <v>-0.06318862562089472</v>
+      </c>
+      <c r="H56">
+        <v>-0.003099574300652967</v>
+      </c>
+      <c r="I56">
+        <v>0.1071339877773176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.00160302214647353</v>
+        <v>0.004815161789751325</v>
       </c>
       <c r="C58">
-        <v>-0.0125019572956621</v>
+        <v>-0.04865131390346104</v>
       </c>
       <c r="D58">
-        <v>-0.2259522607096874</v>
+        <v>-0.2851948364229133</v>
       </c>
       <c r="E58">
-        <v>-0.07039150804462332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02179619036412675</v>
+      </c>
+      <c r="F58">
+        <v>-0.09370089670490732</v>
+      </c>
+      <c r="G58">
+        <v>-0.1251298985722631</v>
+      </c>
+      <c r="H58">
+        <v>0.09849663501888352</v>
+      </c>
+      <c r="I58">
+        <v>-0.0659753899597937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1655683821774592</v>
+        <v>0.2456081654313027</v>
       </c>
       <c r="C59">
-        <v>0.1597681859994536</v>
+        <v>0.0714371580206369</v>
       </c>
       <c r="D59">
-        <v>-0.04922376856727303</v>
+        <v>-0.05918355674366451</v>
       </c>
       <c r="E59">
-        <v>-0.03708742940439198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03536212485903019</v>
+      </c>
+      <c r="F59">
+        <v>-0.01450972119091365</v>
+      </c>
+      <c r="G59">
+        <v>-0.003190929182122537</v>
+      </c>
+      <c r="H59">
+        <v>0.01160321611975809</v>
+      </c>
+      <c r="I59">
+        <v>0.05273306006917598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1982107871941975</v>
+        <v>0.1542708481315497</v>
       </c>
       <c r="C60">
-        <v>-0.08597975010530121</v>
+        <v>-0.1682757737299848</v>
       </c>
       <c r="D60">
-        <v>-0.1574776510807179</v>
+        <v>-0.08438954346252563</v>
       </c>
       <c r="E60">
-        <v>0.1874124313884412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2279890248417373</v>
+      </c>
+      <c r="F60">
+        <v>0.1570227453071377</v>
+      </c>
+      <c r="G60">
+        <v>0.2276355673641629</v>
+      </c>
+      <c r="H60">
+        <v>0.2144857944466903</v>
+      </c>
+      <c r="I60">
+        <v>-0.01183561533704993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03324801048349823</v>
+        <v>0.01367633528759156</v>
       </c>
       <c r="C61">
-        <v>-0.0527856585339735</v>
+        <v>-0.07203378831523825</v>
       </c>
       <c r="D61">
-        <v>-0.1071202384416873</v>
+        <v>-0.08339311794248577</v>
       </c>
       <c r="E61">
-        <v>0.01094845688376554</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03701141986461551</v>
+      </c>
+      <c r="F61">
+        <v>0.01307802103145425</v>
+      </c>
+      <c r="G61">
+        <v>0.02553452323779308</v>
+      </c>
+      <c r="H61">
+        <v>-0.09776134065769353</v>
+      </c>
+      <c r="I61">
+        <v>-0.025231548374376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01021054407064122</v>
+        <v>0.002626317211327339</v>
       </c>
       <c r="C63">
-        <v>-0.02610619665992325</v>
+        <v>-0.03618309468442232</v>
       </c>
       <c r="D63">
-        <v>-0.09293716565148316</v>
+        <v>-0.07110240060953903</v>
       </c>
       <c r="E63">
-        <v>-0.009963684516479084</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02918456741240702</v>
+      </c>
+      <c r="F63">
+        <v>-0.02172200416618824</v>
+      </c>
+      <c r="G63">
+        <v>-0.007888978547326496</v>
+      </c>
+      <c r="H63">
+        <v>-0.0649704857350118</v>
+      </c>
+      <c r="I63">
+        <v>-0.001134154522780185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06607456860457628</v>
+        <v>0.02283064949146725</v>
       </c>
       <c r="C64">
-        <v>-0.07801064398640742</v>
+        <v>-0.1037916990136429</v>
       </c>
       <c r="D64">
-        <v>-0.03759602323541929</v>
+        <v>-0.02504458477934887</v>
       </c>
       <c r="E64">
-        <v>-0.02058226976835614</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02589881400048371</v>
+      </c>
+      <c r="F64">
+        <v>-0.0238401080147106</v>
+      </c>
+      <c r="G64">
+        <v>0.04795511082207995</v>
+      </c>
+      <c r="H64">
+        <v>-0.1059693200065222</v>
+      </c>
+      <c r="I64">
+        <v>-0.07064663827518493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02662341603958768</v>
+        <v>0.02121573839519592</v>
       </c>
       <c r="C65">
-        <v>-0.01598089855523138</v>
+        <v>-0.03939443399977805</v>
       </c>
       <c r="D65">
-        <v>-0.1181031951289401</v>
+        <v>-0.118913976922802</v>
       </c>
       <c r="E65">
-        <v>0.001508650608212512</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04524467343420854</v>
+      </c>
+      <c r="F65">
+        <v>-0.008213408480722618</v>
+      </c>
+      <c r="G65">
+        <v>0.01845242183497044</v>
+      </c>
+      <c r="H65">
+        <v>-0.04823882395081005</v>
+      </c>
+      <c r="I65">
+        <v>-0.006849568672757607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02574088722083622</v>
+        <v>0.003656622660719111</v>
       </c>
       <c r="C66">
-        <v>-0.06389303934456043</v>
+        <v>-0.09016510102628046</v>
       </c>
       <c r="D66">
-        <v>-0.1222400819352306</v>
+        <v>-0.1283976151316194</v>
       </c>
       <c r="E66">
-        <v>0.02557630691421429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03475201447145201</v>
+      </c>
+      <c r="F66">
+        <v>0.01073119842052234</v>
+      </c>
+      <c r="G66">
+        <v>-0.007583231122869897</v>
+      </c>
+      <c r="H66">
+        <v>-0.06250241679798031</v>
+      </c>
+      <c r="I66">
+        <v>-0.07538709388995483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02781230671788344</v>
+        <v>0.0239697263427469</v>
       </c>
       <c r="C67">
-        <v>-0.0175494452468861</v>
+        <v>-0.02818908216141815</v>
       </c>
       <c r="D67">
-        <v>-0.04473891720725759</v>
+        <v>-0.03516310142411669</v>
       </c>
       <c r="E67">
-        <v>0.01712491740432081</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.005456980283675676</v>
+      </c>
+      <c r="F67">
+        <v>0.03027711667024425</v>
+      </c>
+      <c r="G67">
+        <v>-0.005241248643079462</v>
+      </c>
+      <c r="H67">
+        <v>-0.06256278753477686</v>
+      </c>
+      <c r="I67">
+        <v>0.01978482800050357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1912069530990806</v>
+        <v>0.2688530524713827</v>
       </c>
       <c r="C68">
-        <v>0.1747344862290762</v>
+        <v>0.07257835238720783</v>
       </c>
       <c r="D68">
-        <v>-0.03021057786497709</v>
+        <v>-0.03343940999964407</v>
       </c>
       <c r="E68">
-        <v>-0.008722798468484691</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005626564447222694</v>
+      </c>
+      <c r="F68">
+        <v>-0.02825820882250448</v>
+      </c>
+      <c r="G68">
+        <v>-0.06475699728303048</v>
+      </c>
+      <c r="H68">
+        <v>0.03936465841663617</v>
+      </c>
+      <c r="I68">
+        <v>0.09870960048052783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06836954476589484</v>
+        <v>0.02187884543119168</v>
       </c>
       <c r="C69">
-        <v>-0.1131357502096567</v>
+        <v>-0.1199028424339664</v>
       </c>
       <c r="D69">
-        <v>-0.08310154330032754</v>
+        <v>-0.03624225927933136</v>
       </c>
       <c r="E69">
-        <v>-0.009646771985549259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.002536885855298068</v>
+      </c>
+      <c r="F69">
+        <v>0.01519458665140662</v>
+      </c>
+      <c r="G69">
+        <v>0.03387637937397273</v>
+      </c>
+      <c r="H69">
+        <v>-0.03630521136088486</v>
+      </c>
+      <c r="I69">
+        <v>0.09117268042337949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1974964945063808</v>
+        <v>0.2699849967469537</v>
       </c>
       <c r="C71">
-        <v>0.1944795350707069</v>
+        <v>0.08805999854257571</v>
       </c>
       <c r="D71">
-        <v>-0.025742366424766</v>
+        <v>-0.02173250501008432</v>
       </c>
       <c r="E71">
-        <v>-0.01172356062005089</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008278580879918526</v>
+      </c>
+      <c r="F71">
+        <v>-0.01264969569660674</v>
+      </c>
+      <c r="G71">
+        <v>-0.03351968072971395</v>
+      </c>
+      <c r="H71">
+        <v>-0.01535276091101439</v>
+      </c>
+      <c r="I71">
+        <v>0.1590221647499345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1123477119127188</v>
+        <v>0.05987409622502773</v>
       </c>
       <c r="C72">
-        <v>-0.06483192260412411</v>
+        <v>-0.1207572464444201</v>
       </c>
       <c r="D72">
-        <v>-0.09468412317734008</v>
+        <v>-0.06045845083586733</v>
       </c>
       <c r="E72">
-        <v>0.05480672822398555</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08597188599343858</v>
+      </c>
+      <c r="F72">
+        <v>0.01553724865703879</v>
+      </c>
+      <c r="G72">
+        <v>0.02687641143861129</v>
+      </c>
+      <c r="H72">
+        <v>-0.05050075439644276</v>
+      </c>
+      <c r="I72">
+        <v>-0.06513282677930295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1840260748096421</v>
+        <v>0.1396316954807995</v>
       </c>
       <c r="C73">
-        <v>-0.0510095662900201</v>
+        <v>-0.1415557384874422</v>
       </c>
       <c r="D73">
-        <v>-0.2254518915130028</v>
+        <v>-0.09639051862883251</v>
       </c>
       <c r="E73">
-        <v>0.2788351119749289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3763606167656565</v>
+      </c>
+      <c r="F73">
+        <v>0.2398105381538157</v>
+      </c>
+      <c r="G73">
+        <v>0.4310383634965708</v>
+      </c>
+      <c r="H73">
+        <v>0.1555849076325182</v>
+      </c>
+      <c r="I73">
+        <v>-0.07337663393915812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.115612655421199</v>
+        <v>0.05444364624220125</v>
       </c>
       <c r="C74">
-        <v>-0.1077709589984421</v>
+        <v>-0.1472661573751025</v>
       </c>
       <c r="D74">
-        <v>0.02030321675231504</v>
+        <v>0.03981450555735489</v>
       </c>
       <c r="E74">
-        <v>-0.04135337389650685</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01027855772196302</v>
+      </c>
+      <c r="F74">
+        <v>-0.03883566680422174</v>
+      </c>
+      <c r="G74">
+        <v>-0.004558006227156275</v>
+      </c>
+      <c r="H74">
+        <v>0.01035976146117121</v>
+      </c>
+      <c r="I74">
+        <v>0.108646719436771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2480595995168611</v>
+        <v>0.1201154416025657</v>
       </c>
       <c r="C75">
-        <v>-0.1815510335035003</v>
+        <v>-0.2683507429885634</v>
       </c>
       <c r="D75">
-        <v>0.1039042665271221</v>
+        <v>0.1317857155320941</v>
       </c>
       <c r="E75">
-        <v>0.008311755250740632</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09007799683186853</v>
+      </c>
+      <c r="F75">
+        <v>0.04084075422820433</v>
+      </c>
+      <c r="G75">
+        <v>-0.09977762472013441</v>
+      </c>
+      <c r="H75">
+        <v>-0.004516751584250281</v>
+      </c>
+      <c r="I75">
+        <v>0.07962952519595333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1506197633829286</v>
+        <v>0.06973416379208106</v>
       </c>
       <c r="C76">
-        <v>-0.1279925422951721</v>
+        <v>-0.1822832887669601</v>
       </c>
       <c r="D76">
-        <v>-0.02454059156345637</v>
+        <v>0.02815602416366835</v>
       </c>
       <c r="E76">
-        <v>-0.01358518267841115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02630558984836352</v>
+      </c>
+      <c r="F76">
+        <v>-0.002490510899897058</v>
+      </c>
+      <c r="G76">
+        <v>-0.04579994321085196</v>
+      </c>
+      <c r="H76">
+        <v>-0.03505654667535998</v>
+      </c>
+      <c r="I76">
+        <v>0.105147760932017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01633324258594433</v>
+        <v>0.02446582495225792</v>
       </c>
       <c r="C77">
-        <v>-0.0760584725016252</v>
+        <v>-0.0941341517711991</v>
       </c>
       <c r="D77">
-        <v>-0.0802909608151004</v>
+        <v>-0.2773391677711417</v>
       </c>
       <c r="E77">
-        <v>-0.2255490142280474</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7669878931781955</v>
+      </c>
+      <c r="F77">
+        <v>0.3194727916418379</v>
+      </c>
+      <c r="G77">
+        <v>0.2889766166752057</v>
+      </c>
+      <c r="H77">
+        <v>0.228197113738511</v>
+      </c>
+      <c r="I77">
+        <v>0.0261130004778706</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03102162888387585</v>
+        <v>0.01511463976063546</v>
       </c>
       <c r="C78">
-        <v>-0.06497420552957513</v>
+        <v>-0.08514964898428583</v>
       </c>
       <c r="D78">
-        <v>-0.1547799511627818</v>
+        <v>-0.1346856472531271</v>
       </c>
       <c r="E78">
-        <v>-0.03800334235119861</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04807696282941276</v>
+      </c>
+      <c r="F78">
+        <v>-0.04830753559689246</v>
+      </c>
+      <c r="G78">
+        <v>-0.03483786734213417</v>
+      </c>
+      <c r="H78">
+        <v>-0.01795592390639426</v>
+      </c>
+      <c r="I78">
+        <v>0.1001555426151675</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1005510148468221</v>
+        <v>0.03687153646535256</v>
       </c>
       <c r="C79">
-        <v>-0.1604532279037456</v>
+        <v>-0.1835329064948926</v>
       </c>
       <c r="D79">
-        <v>0.091011728417286</v>
+        <v>0.07284501715826415</v>
       </c>
       <c r="E79">
-        <v>-0.7969456982637345</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1223894088034585</v>
+      </c>
+      <c r="F79">
+        <v>-0.8119661806440872</v>
+      </c>
+      <c r="G79">
+        <v>0.3755297231380248</v>
+      </c>
+      <c r="H79">
+        <v>0.2216145703671088</v>
+      </c>
+      <c r="I79">
+        <v>-0.145386724303684</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007669977850023641</v>
+        <v>0.0005099101321075019</v>
       </c>
       <c r="C80">
-        <v>-0.04574156299704953</v>
+        <v>-0.04624462473807949</v>
       </c>
       <c r="D80">
-        <v>-0.04570270254607407</v>
+        <v>-0.04220729030998951</v>
       </c>
       <c r="E80">
-        <v>0.008076483096179483</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02563338523203583</v>
+      </c>
+      <c r="F80">
+        <v>-0.007467877115205922</v>
+      </c>
+      <c r="G80">
+        <v>-0.02586895987169163</v>
+      </c>
+      <c r="H80">
+        <v>-0.017106086038915</v>
+      </c>
+      <c r="I80">
+        <v>0.06164235640150864</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1273979300167506</v>
+        <v>0.04895339611215859</v>
       </c>
       <c r="C81">
-        <v>-0.1247610546665975</v>
+        <v>-0.1653151011031289</v>
       </c>
       <c r="D81">
-        <v>0.06540020457726506</v>
+        <v>0.07807201245038373</v>
       </c>
       <c r="E81">
-        <v>-0.06925357693969816</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.07141303914046343</v>
+      </c>
+      <c r="F81">
+        <v>-0.04320730220745586</v>
+      </c>
+      <c r="G81">
+        <v>-0.04725035534569895</v>
+      </c>
+      <c r="H81">
+        <v>-0.06359449373717072</v>
+      </c>
+      <c r="I81">
+        <v>0.1293792732998553</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.271746670852956</v>
+        <v>0.1057097541660347</v>
       </c>
       <c r="C82">
-        <v>-0.2756291998596253</v>
+        <v>-0.3281313668829628</v>
       </c>
       <c r="D82">
-        <v>0.2060264376613981</v>
+        <v>0.2256024898563317</v>
       </c>
       <c r="E82">
-        <v>0.116499542680254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0468537303134318</v>
+      </c>
+      <c r="F82">
+        <v>0.1307893651404904</v>
+      </c>
+      <c r="G82">
+        <v>-0.0708125888039918</v>
+      </c>
+      <c r="H82">
+        <v>-0.09263833012804817</v>
+      </c>
+      <c r="I82">
+        <v>0.03234657553033515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.002672319455444288</v>
+        <v>-0.01265432341927622</v>
       </c>
       <c r="C83">
-        <v>-0.05249367422969845</v>
+        <v>-0.03518992207485281</v>
       </c>
       <c r="D83">
-        <v>-0.01640663148711359</v>
+        <v>-0.0350992617444332</v>
       </c>
       <c r="E83">
-        <v>-0.05691166776329899</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08924055897399887</v>
+      </c>
+      <c r="F83">
+        <v>-0.03154445007130265</v>
+      </c>
+      <c r="G83">
+        <v>-0.05498497536563034</v>
+      </c>
+      <c r="H83">
+        <v>-0.02370518463497503</v>
+      </c>
+      <c r="I83">
+        <v>0.2832927169185628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0009918821609515719</v>
+        <v>-0.001918048631834096</v>
       </c>
       <c r="C84">
-        <v>0.001908467890132449</v>
+        <v>-0.01601767046128028</v>
       </c>
       <c r="D84">
-        <v>-0.004147997351715786</v>
+        <v>-0.04301463652747128</v>
       </c>
       <c r="E84">
-        <v>-0.0005376921157222778</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01054582761992447</v>
+      </c>
+      <c r="F84">
+        <v>-0.0169491461445001</v>
+      </c>
+      <c r="G84">
+        <v>-0.04904073513493332</v>
+      </c>
+      <c r="H84">
+        <v>0.0007008469191112193</v>
+      </c>
+      <c r="I84">
+        <v>-0.04372400136778334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1514437731051463</v>
+        <v>0.06430057825682375</v>
       </c>
       <c r="C85">
-        <v>-0.1297722574576563</v>
+        <v>-0.183687964347093</v>
       </c>
       <c r="D85">
-        <v>0.04142753335473309</v>
+        <v>0.0890600777032223</v>
       </c>
       <c r="E85">
-        <v>-0.02759233923416238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.001775880317417565</v>
+      </c>
+      <c r="F85">
+        <v>-0.07624212085617529</v>
+      </c>
+      <c r="G85">
+        <v>-0.03120343285188712</v>
+      </c>
+      <c r="H85">
+        <v>-0.004571823718760793</v>
+      </c>
+      <c r="I85">
+        <v>0.0866660914896043</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01403158733173347</v>
+        <v>0.01094958897071404</v>
       </c>
       <c r="C86">
-        <v>-0.01216925580498816</v>
+        <v>-0.03013127910268265</v>
       </c>
       <c r="D86">
-        <v>-0.08422654175840044</v>
+        <v>-0.1069631126380019</v>
       </c>
       <c r="E86">
-        <v>-0.04788751941087462</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04115950451886331</v>
+      </c>
+      <c r="F86">
+        <v>0.01364041472750578</v>
+      </c>
+      <c r="G86">
+        <v>0.02535351685513625</v>
+      </c>
+      <c r="H86">
+        <v>-0.004683106377786784</v>
+      </c>
+      <c r="I86">
+        <v>0.09398606915433561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01653913074349227</v>
+        <v>0.009509180434240859</v>
       </c>
       <c r="C87">
-        <v>-0.02723872227851709</v>
+        <v>-0.05490319163997995</v>
       </c>
       <c r="D87">
-        <v>-0.1330009849258373</v>
+        <v>-0.1441903988805341</v>
       </c>
       <c r="E87">
-        <v>-0.04289869545156883</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.003272635407217416</v>
+      </c>
+      <c r="F87">
+        <v>-0.04030197288436808</v>
+      </c>
+      <c r="G87">
+        <v>-0.06520542718620044</v>
+      </c>
+      <c r="H87">
+        <v>-0.02448848167761284</v>
+      </c>
+      <c r="I87">
+        <v>-0.0242718839351889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0601773912852637</v>
+        <v>0.03158362823145426</v>
       </c>
       <c r="C88">
-        <v>-0.04522825192798378</v>
+        <v>-0.06850637601299917</v>
       </c>
       <c r="D88">
-        <v>-0.03323523934979023</v>
+        <v>-0.007242831742182781</v>
       </c>
       <c r="E88">
-        <v>-0.02944774251588901</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01411521101335962</v>
+      </c>
+      <c r="F88">
+        <v>-0.02104682346760812</v>
+      </c>
+      <c r="G88">
+        <v>0.0004074903475710168</v>
+      </c>
+      <c r="H88">
+        <v>-0.03067961513761155</v>
+      </c>
+      <c r="I88">
+        <v>0.03445141330785266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2965736729349039</v>
+        <v>0.4105824282463481</v>
       </c>
       <c r="C89">
-        <v>0.3538174728393889</v>
+        <v>0.1719467860083106</v>
       </c>
       <c r="D89">
-        <v>-0.02891461896622292</v>
+        <v>-0.02734067964827454</v>
       </c>
       <c r="E89">
-        <v>-0.1029475062133591</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0258036164538361</v>
+      </c>
+      <c r="F89">
+        <v>-0.08031079751751645</v>
+      </c>
+      <c r="G89">
+        <v>-0.06790656301460847</v>
+      </c>
+      <c r="H89">
+        <v>-0.1502740407691445</v>
+      </c>
+      <c r="I89">
+        <v>-0.2867726688570049</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2356424411235444</v>
+        <v>0.3136184739676741</v>
       </c>
       <c r="C90">
-        <v>0.2596345540424392</v>
+        <v>0.1146908730444674</v>
       </c>
       <c r="D90">
-        <v>-0.03507864566858681</v>
+        <v>-0.03326036417810461</v>
       </c>
       <c r="E90">
-        <v>0.01000332515391167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0143933402531696</v>
+      </c>
+      <c r="F90">
+        <v>0.01952598031222237</v>
+      </c>
+      <c r="G90">
+        <v>-0.05879506577958254</v>
+      </c>
+      <c r="H90">
+        <v>0.02363504340703563</v>
+      </c>
+      <c r="I90">
+        <v>0.07766599807015975</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1675239036916134</v>
+        <v>0.07419799902178613</v>
       </c>
       <c r="C91">
-        <v>-0.1753617204977017</v>
+        <v>-0.2113690590842244</v>
       </c>
       <c r="D91">
-        <v>0.08870005844115951</v>
+        <v>0.1053065659145938</v>
       </c>
       <c r="E91">
-        <v>-0.1002508124202602</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06666415436196313</v>
+      </c>
+      <c r="F91">
+        <v>-0.06779419368000004</v>
+      </c>
+      <c r="G91">
+        <v>-0.01295125678249513</v>
+      </c>
+      <c r="H91">
+        <v>-0.01010852148412975</v>
+      </c>
+      <c r="I91">
+        <v>0.1157450068727309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2184178955331084</v>
+        <v>0.3357564687239164</v>
       </c>
       <c r="C92">
-        <v>0.2759896068699299</v>
+        <v>0.1509311944418827</v>
       </c>
       <c r="D92">
-        <v>0.05028140080763903</v>
+        <v>0.003136780840565829</v>
       </c>
       <c r="E92">
-        <v>-0.05741425719301901</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07368703914861134</v>
+      </c>
+      <c r="F92">
+        <v>-0.01547090895754864</v>
+      </c>
+      <c r="G92">
+        <v>-0.0245711962682683</v>
+      </c>
+      <c r="H92">
+        <v>-0.01876292506531236</v>
+      </c>
+      <c r="I92">
+        <v>-0.2124850764976408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2598803112069898</v>
+        <v>0.3330354309253271</v>
       </c>
       <c r="C93">
-        <v>0.2709750918659993</v>
+        <v>0.1221484074784598</v>
       </c>
       <c r="D93">
-        <v>-0.01654709123277222</v>
+        <v>0.01277715627899303</v>
       </c>
       <c r="E93">
-        <v>-0.003950417195932384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02768282099607067</v>
+      </c>
+      <c r="F93">
+        <v>-0.01049448591356231</v>
+      </c>
+      <c r="G93">
+        <v>0.02285328189478334</v>
+      </c>
+      <c r="H93">
+        <v>-0.00199357243933041</v>
+      </c>
+      <c r="I93">
+        <v>0.07644484999626701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3131687112394936</v>
+        <v>0.1424176519921479</v>
       </c>
       <c r="C94">
-        <v>-0.246069926692904</v>
+        <v>-0.3542791530569035</v>
       </c>
       <c r="D94">
-        <v>0.3695396530743263</v>
+        <v>0.3461789549998886</v>
       </c>
       <c r="E94">
-        <v>0.1859548730509244</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.04773229100346683</v>
+      </c>
+      <c r="F94">
+        <v>0.1122599915825064</v>
+      </c>
+      <c r="G94">
+        <v>-0.3144931394088623</v>
+      </c>
+      <c r="H94">
+        <v>0.05605541874685458</v>
+      </c>
+      <c r="I94">
+        <v>-0.3644019135517315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01826226325367967</v>
+        <v>0.01902745856086567</v>
       </c>
       <c r="C95">
-        <v>-0.03643207172620172</v>
+        <v>-0.0597354433593396</v>
       </c>
       <c r="D95">
-        <v>-0.06384772860842691</v>
+        <v>-0.110585718790859</v>
       </c>
       <c r="E95">
-        <v>-0.1002623300250386</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1922451714285612</v>
+      </c>
+      <c r="F95">
+        <v>0.07168648065011594</v>
+      </c>
+      <c r="G95">
+        <v>0.1233998101929088</v>
+      </c>
+      <c r="H95">
+        <v>-0.3677392969197394</v>
+      </c>
+      <c r="I95">
+        <v>-0.4992777846511123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001004984737904861</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001179608634935227</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.001205419195841517</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.001481789177050539</v>
+      </c>
+      <c r="F97">
+        <v>0.001657227452163185</v>
+      </c>
+      <c r="G97">
+        <v>0.001131624282139437</v>
+      </c>
+      <c r="H97">
+        <v>-0.0002535104647097856</v>
+      </c>
+      <c r="I97">
+        <v>-0.00123645042497196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1533992442335451</v>
+        <v>0.1158958995145723</v>
       </c>
       <c r="C98">
-        <v>-0.06852431922175332</v>
+        <v>-0.1420081160586527</v>
       </c>
       <c r="D98">
-        <v>-0.1155461772585007</v>
+        <v>-0.05831033168774842</v>
       </c>
       <c r="E98">
-        <v>0.2034607433915028</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2653224172935547</v>
+      </c>
+      <c r="F98">
+        <v>0.167366497272381</v>
+      </c>
+      <c r="G98">
+        <v>0.2672750296495167</v>
+      </c>
+      <c r="H98">
+        <v>0.1658330591726312</v>
+      </c>
+      <c r="I98">
+        <v>-0.03575816004141584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002092398178562248</v>
+        <v>-0.001625812102021292</v>
       </c>
       <c r="C101">
-        <v>-0.02193588149318103</v>
+        <v>-0.03069192557366259</v>
       </c>
       <c r="D101">
-        <v>-0.1013246093587629</v>
+        <v>-0.100894067398559</v>
       </c>
       <c r="E101">
-        <v>-0.01034055558337311</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03926913099584147</v>
+      </c>
+      <c r="F101">
+        <v>-0.03604081973430392</v>
+      </c>
+      <c r="G101">
+        <v>-0.004574061949617478</v>
+      </c>
+      <c r="H101">
+        <v>-0.1405562943537</v>
+      </c>
+      <c r="I101">
+        <v>0.01354257512008366</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1174329859710594</v>
+        <v>0.03630088568933911</v>
       </c>
       <c r="C102">
-        <v>-0.1467827579669424</v>
+        <v>-0.1526031587050634</v>
       </c>
       <c r="D102">
-        <v>0.06769811246199704</v>
+        <v>0.09103452532134818</v>
       </c>
       <c r="E102">
-        <v>0.03695568874090642</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03000394350115139</v>
+      </c>
+      <c r="F102">
+        <v>0.06795253912149868</v>
+      </c>
+      <c r="G102">
+        <v>0.01336640395998695</v>
+      </c>
+      <c r="H102">
+        <v>-0.05064883389465647</v>
+      </c>
+      <c r="I102">
+        <v>0.01593395927338615</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
